--- a/Newfolder/dsr/data/Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Educatoronbehalfofstudent_form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35861CD1-4D38-434C-A785-D504245079AB}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{980FC5A3-B83F-4A77-AA32-147490DD0060}"/>
   <bookViews>
     <workbookView xWindow="27405" yWindow="690" windowWidth="22275" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>country</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>row.mitchell@mailinator.com</t>
+  </si>
+  <si>
+    <t>Authorized Agent Company Name</t>
+  </si>
+  <si>
+    <t>Stone</t>
   </si>
 </sst>
 </file>
@@ -533,133 +539,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
@@ -667,55 +676,58 @@
         <v>16</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P3" s="3" t="s">
         <v>16</v>
       </c>
@@ -723,55 +735,58 @@
         <v>16</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P4" s="3" t="s">
         <v>16</v>
       </c>
@@ -779,15 +794,18 @@
         <v>16</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2:D4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{2D65E0FE-A3BD-4ED0-8831-06E3E5D69915}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{0B5B7CF6-89F6-4A04-8901-B9E77D9F1D6D}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{0E789DFE-BAD3-4BBD-A33D-BE8AE8A39D9B}"/>
+    <hyperlink ref="E2:E4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{2D65E0FE-A3BD-4ED0-8831-06E3E5D69915}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{0B5B7CF6-89F6-4A04-8901-B9E77D9F1D6D}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{0E789DFE-BAD3-4BBD-A33D-BE8AE8A39D9B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/Newfolder/dsr/data/Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{980FC5A3-B83F-4A77-AA32-147490DD0060}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899B5E0B-2F43-41C2-9F10-C776D8ABDC69}"/>
   <bookViews>
-    <workbookView xWindow="27405" yWindow="690" windowWidth="22275" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="285" windowWidth="22275" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,25 +217,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -541,262 +542,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="P2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="P3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="P4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Newfolder/dsr/data/Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899B5E0B-2F43-41C2-9F10-C776D8ABDC69}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D90099E-AD65-49A0-AF92-3CC236770692}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="285" windowWidth="22275" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27405" yWindow="690" windowWidth="22275" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>palmone@mailinator.com</t>
   </si>
   <si>
-    <t>Email of Child (Data Subject)</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>Stone</t>
+  </si>
+  <si>
+    <t>Primary Email address</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:M4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,31 +571,31 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -627,22 +627,22 @@
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>17</v>
@@ -686,22 +686,22 @@
     </row>
     <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>19</v>
@@ -745,22 +745,22 @@
     </row>
     <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>21</v>

--- a/Newfolder/dsr/data/Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D90099E-AD65-49A0-AF92-3CC236770692}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40090CE-2F52-4142-A498-7FA98FA82EDD}"/>
   <bookViews>
-    <workbookView xWindow="27405" yWindow="690" windowWidth="22275" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29085" yWindow="840" windowWidth="20205" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="71">
   <si>
     <t>country</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Authorized Agent on behalf of someone else</t>
   </si>
   <si>
-    <t>row.mitchell@mailinator.com</t>
-  </si>
-  <si>
     <t>Authorized Agent Company Name</t>
   </si>
   <si>
@@ -152,6 +149,90 @@
   </si>
   <si>
     <t>Primary Email address</t>
+  </si>
+  <si>
+    <t>one@mailinator.com</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>4/15/2005</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>1245 Market Street, Apt 7B</t>
+  </si>
+  <si>
+    <t>request to delete my data</t>
+  </si>
+  <si>
+    <t>Student data (if any)</t>
+  </si>
+  <si>
+    <t>Parent data (if any)</t>
+  </si>
+  <si>
+    <t>delete_student</t>
+  </si>
+  <si>
+    <t>delete_parent</t>
+  </si>
+  <si>
+    <t>delete_educator</t>
+  </si>
+  <si>
+    <t>close_student</t>
+  </si>
+  <si>
+    <t>close_educator</t>
+  </si>
+  <si>
+    <t>Student account (if any)</t>
+  </si>
+  <si>
+    <t>Educator data (if any)</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>1249 Market Street, Apt 7B</t>
+  </si>
+  <si>
+    <t>Close/deactivate/cancel my College Board account</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>eduone</t>
+  </si>
+  <si>
+    <t>eduFive</t>
+  </si>
+  <si>
+    <t>edusix</t>
+  </si>
+  <si>
+    <t>eduseven</t>
+  </si>
+  <si>
+    <t>edueight</t>
+  </si>
+  <si>
+    <t>edunine</t>
+  </si>
+  <si>
+    <t>eduten</t>
   </si>
 </sst>
 </file>
@@ -217,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -237,6 +318,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,15 +647,20 @@
     <col min="17" max="17" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
+    <col min="20" max="20" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
@@ -583,7 +672,7 @@
         <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>28</v>
@@ -624,8 +713,23 @@
       <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -633,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
@@ -642,7 +746,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>17</v>
@@ -683,16 +787,21 @@
       <c r="S2" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>38</v>
@@ -701,7 +810,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>19</v>
@@ -742,8 +851,13 @@
       <c r="S3" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -751,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>38</v>
@@ -760,7 +874,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>21</v>
@@ -800,16 +914,491 @@
       </c>
       <c r="S4" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5712345574</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="9">
+        <v>19801</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2:E4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{2D65E0FE-A3BD-4ED0-8831-06E3E5D69915}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{0B5B7CF6-89F6-4A04-8901-B9E77D9F1D6D}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{0E789DFE-BAD3-4BBD-A33D-BE8AE8A39D9B}"/>
+    <hyperlink ref="E5:E7" r:id="rId2" display="palmone@mailinator.com" xr:uid="{93D5C9E2-CDDE-46B5-871D-A4F4E7F1C837}"/>
+    <hyperlink ref="E8:E10" r:id="rId3" display="palmone@mailinator.com" xr:uid="{30CCCA33-D6AE-426A-A809-9A4D8BD3BFDA}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{1E1AAC3E-CF20-47D6-A665-93A566D9CB07}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{DC8990D4-B08A-45EF-9770-BDFEDF336BD7}"/>
+    <hyperlink ref="F3:F11" r:id="rId6" display="one@mailinator.com" xr:uid="{B15C7178-2DFE-4933-86C0-319CA067249F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>